--- a/assets/files/submission/AGD_metadata.xlsx
+++ b/assets/files/submission/AGD_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="56025" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22704" windowHeight="11676"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="Data" sheetId="5" r:id="rId6"/>
     <sheet name="Analysis" sheetId="7" r:id="rId7"/>
     <sheet name="Dataset" sheetId="9" r:id="rId8"/>
-    <sheet name="Admin" sheetId="10" r:id="rId9"/>
+    <sheet name="File" sheetId="13" r:id="rId9"/>
+    <sheet name="Admin" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="752">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1299,13 +1300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># それぞれのエクセルシートが JGA メタデータオブジェクトに対応しています。</t>
-    <rPh sb="32" eb="34">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必須項目</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -2245,25 +2239,6 @@
     <t># Analysis の概要</t>
     <rPh sb="12" eb="14">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)</t>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2551,19 +2526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data/Analysis オブジェクトに複数のファイルが含まれる場合は、可能な限りファイルを結合し１つにまとめてください。また、ファイル名に空白を含めないでください。ファイルのアップロード・ダウンロードで不具合が発生する可能性があります。</t>
-    <rPh sb="69" eb="70">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t># ファイル名をカンマで区切って記入します。</t>
     </r>
@@ -2811,30 +2773,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 表現型と疾患</t>
-    <rPh sb="2" eb="5">
-      <t>ヒョウゲンケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シッカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phenotype term(s)/Disease term(s)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># ここの値が Primary Phenotype として表示されます。</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Inclusion/Exclusion Criteria</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2946,61 +2884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Disease Type(s)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 研究対象疾患の分類</t>
-    <rPh sb="2" eb="4">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シッカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 該当する疾患分類が複数ある場合は複数記入します。</t>
-    <rPh sb="2" eb="4">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シッカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例: Cancer, Cardiovascular disease (Human Phenotype Ontology http://human-phenotype-ontology.github.io の用語を記入します)</t>
-    <rPh sb="103" eb="105">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Histological Type</t>
   </si>
   <si>
@@ -3095,80 +2978,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># シークエンシングデータファイル名をカンマで区切って記入します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>転送時に不具合が発生する可能性があるため，できるだけ 1 Data あたりのファイル数を少なくしてください。また、ファイル名に空白を含めないでください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>配列データは phred 形式の fastq か sff で登録します。</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># アライメントなどリファレンス配列を使った解析の場合、リファレンス配列の名前 (GRCh37, hg19 etc) を記入します。</t>
     <rPh sb="16" eb="18">
       <t>ハイレツ</t>
@@ -3303,12 +3112,6 @@
     <t>Inverse rRNA</t>
   </si>
   <si>
-    <t>cDNA_randomPriming"/&gt;</t>
-  </si>
-  <si>
-    <t>cDNA_oligo_dT"/&gt;</t>
-  </si>
-  <si>
     <t>DNase</t>
   </si>
   <si>
@@ -3333,16 +3136,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample ID を必須化</t>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3517,19 +3310,6 @@
   </si>
   <si>
     <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
-    <rPh sb="18" eb="20">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3611,99 +3391,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AGD メタデータ登録シート</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGD へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGD へのデータ登録については、以下のウェブサイトをご覧ください。</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://trace.ddbj.nig.ac.jp/agd/submission.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連絡先: agd@ddbj.nig.ac.jp</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら AGD チームに連絡します。公開予定日を指定することはできません</t>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
+    <t>Diseases/Traits/Exposures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ここの値が Primary として表示されます。</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#研究対象疾患の ICD-10 分類</t>
+    <rPh sb="1" eb="3">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ICD-10 http://apps.who.int/classifications/icd10/browse/2016/en
+該当する疾患分類が複数ある場合は複数記入します。</t>
+    <rPh sb="66" eb="68">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シッカン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ヨテイビ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 登録日。AGD で記入します</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="82" eb="84">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
       <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t># Diseases/Traits/Exposures related to the study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
+該当する用語がある場合は Human Phenotype Ontology http://human-phenotype-ontology.github.io の用語を記入します</t>
+    <rPh sb="56" eb="57">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diseases/Traits/Exposures related to the study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disease classification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDC-10 code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disease classification(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Study-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cDNA_randomPriming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cDNA_oligo_dT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illumina iSeq 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t># Data set に適用される NBDC が Policy に対して発行した AGDP 番号。</t>
+      <t># シークエンシングデータファイル名をカンマで区切って記入します。</t>
     </r>
     <r>
       <rPr>
@@ -3713,8 +3524,206 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>NBDC ポリシーのみが適用される場合は空にします。</t>
+      <t>転送時に不具合が発生する可能性があるため，できるだけ 1 Data あたりのファイル数を少なくしてください。また、ファイル名に空白を含めないでください。</t>
     </r>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>md5_checksum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Data と Analysis に登録する全てのファイル名を記入します。</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Data と Analysis に登録する全てのファイルの md5 値を記入します。</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># それぞれのエクセルシートが AGD メタデータオブジェクトに対応しています。</t>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD へのデータ登録については、以下のウェブサイトをご覧ください。</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新 AGD システムリリースに伴い File シートを追加</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 登録日。AGD で記入します</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Data set に適用される NBDC が Policy に対して発行した AGDP 番号。NBDC ポリシーのみが適用される場合は空にします。</t>
     <rPh sb="12" eb="14">
       <t>テキヨウ</t>
     </rPh>
@@ -3735,6 +3744,96 @@
     </rPh>
     <rPh sb="69" eb="70">
       <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD メタデータ登録シート</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データは submission (ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先: agd@ddbj.nig.ac.jp</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データ提供申請に対し NBDC から発行された Research ID (例: agd0004)</t>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら AGD チームに連絡します。公開予定日を指定することはできません。データは submission (ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3742,8 +3841,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3781,14 +3880,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3894,18 +3985,18 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3929,9 +4020,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3952,6 +4040,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3974,8 +4068,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
-      <color rgb="FFFDE9D9"/>
       <color rgb="FF000000"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF0000FF"/>
@@ -4279,163 +4373,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="30" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="13">
-        <v>42965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="B28" s="13">
-        <v>42935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B29" s="13">
-        <v>42935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B35" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.ddbj.nig.ac.jp/jga/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B20" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B21" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B22" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B24" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B25" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B32" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B35" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B39" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B40" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B41" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B42" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B43" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B44" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B45" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B46" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B49" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B50" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B51" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B52" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B53" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B54" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4449,150 +5496,151 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.625" style="1"/>
-    <col min="4" max="4" width="99.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.625" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="12" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="B11" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="13">
-        <v>42370</v>
+        <v>44354</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +5654,7 @@
     <hyperlink ref="D11" r:id="rId1" display="tkatagi@genome.tokushima-u.ac.jp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4620,38 +5668,41 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="1"/>
-    <col min="2" max="2" width="60.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="48.625" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -4662,234 +5713,236 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>723</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>607</v>
+        <v>719</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="6">
         <v>2</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="6">
         <v>3</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>721</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="6">
         <v>2</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="6">
         <v>2</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="6">
         <v>3</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -4906,35 +5959,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="6">
         <v>2</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="6">
         <v>3</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -4942,52 +5995,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="6">
         <v>2</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="6">
         <v>3</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="6">
         <v>2</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -5008,18 +6061,12 @@
   </colBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>B7:B9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Admin!$N$2:$N$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B32:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5034,71 +6081,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="18"/>
-    <col min="2" max="2" width="24.875" style="1"/>
-    <col min="3" max="3" width="24.875" style="26"/>
-    <col min="4" max="4" width="24.875" style="21"/>
-    <col min="5" max="6" width="24.875" style="1"/>
-    <col min="7" max="7" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.875" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="18"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="3" width="24.88671875" style="25"/>
+    <col min="4" max="4" width="24.88671875" style="20"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+        <v>638</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -5106,637 +6151,637 @@
       <c r="F2" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>650</v>
+      <c r="G2" s="15" t="s">
+        <v>640</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="18" t="s">
         <v>116</v>
       </c>
@@ -5757,80 +6802,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.875" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L1" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -5841,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>218</v>
@@ -5862,1122 +6909,1122 @@
         <v>223</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="L2" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>117</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>118</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>119</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>121</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>122</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>123</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>124</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>125</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>126</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>129</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>132</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>133</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>135</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>136</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>138</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>139</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>140</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>141</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>142</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>143</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
         <v>144</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
         <v>145</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
         <v>146</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
         <v>147</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="18" t="s">
         <v>148</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="18" t="s">
         <v>149</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="18" t="s">
         <v>150</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
         <v>151</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
         <v>152</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
         <v>153</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>154</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="18" t="s">
         <v>156</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="18" t="s">
         <v>157</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="18" t="s">
         <v>158</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="18" t="s">
         <v>159</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
         <v>160</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
         <v>161</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
         <v>162</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
         <v>163</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="18" t="s">
         <v>164</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
         <v>165</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>167</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>168</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>169</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="18" t="s">
         <v>170</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="18" t="s">
         <v>171</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="18" t="s">
         <v>172</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="18" t="s">
         <v>175</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="18" t="s">
         <v>176</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A63" s="18" t="s">
         <v>177</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="18" t="s">
         <v>178</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="18" t="s">
         <v>179</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
         <v>180</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="18" t="s">
         <v>181</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
         <v>182</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
         <v>183</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
         <v>184</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="18" t="s">
         <v>185</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="18" t="s">
         <v>186</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="18" t="s">
         <v>187</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="18" t="s">
         <v>188</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="18" t="s">
         <v>189</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="18" t="s">
         <v>190</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
         <v>192</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="18" t="s">
         <v>193</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="18" t="s">
         <v>194</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="18" t="s">
         <v>195</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="18" t="s">
         <v>196</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="18" t="s">
         <v>197</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="18" t="s">
         <v>198</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="18" t="s">
         <v>199</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="18" t="s">
         <v>200</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="18" t="s">
         <v>201</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="18" t="s">
         <v>202</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="18" t="s">
         <v>203</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="18" t="s">
         <v>204</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="18" t="s">
         <v>205</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
         <v>206</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="18" t="s">
         <v>207</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="18" t="s">
         <v>208</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="18" t="s">
         <v>209</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="18" t="s">
         <v>210</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A97" s="18" t="s">
         <v>211</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="18" t="s">
         <v>212</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="18" t="s">
         <v>213</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="18" t="s">
         <v>214</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="18" t="s">
         <v>215</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="18" t="s">
         <v>216</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -7031,15 +8078,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$52</xm:f>
+            <xm:f>Admin!$J$2:$J$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H102</xm:sqref>
+          <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$J$2:$J$6</xm:f>
+            <xm:f>Admin!$B$2:$B$54</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R102</xm:sqref>
+          <xm:sqref>H3:H102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7054,40 +8101,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="106.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="38" style="18" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D1" s="8"/>
+        <v>541</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="E1" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
@@ -7095,574 +8144,574 @@
         <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="18" t="s">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="s">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="18" t="s">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="18" t="s">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="18" t="s">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="18" t="s">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="18" t="s">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="18" t="s">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="18" t="s">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="18" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="18" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="18" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="18" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="18" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="18" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="18" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="18" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="18" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="18" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="18" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="18" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="18" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="18" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="18" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="18" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="18" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="18" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="18" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="18" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="18" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="18" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="18" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="18" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="18" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="18" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="18" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="18" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="18" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="18" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="18" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="18" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="18" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="18" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="18" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="18" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7691,92 +8740,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="66.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+        <v>691</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="E2" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>353</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -7792,73 +8843,76 @@
         <v>334</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>352</v>
       </c>
@@ -7914,43 +8968,43 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.125" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>367</v>
@@ -7968,12 +9022,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>366</v>
       </c>
@@ -8002,935 +9056,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
-        <v>678</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/assets/files/submission/AGD_metadata.xlsx
+++ b/assets/files/submission/AGD_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22704" windowHeight="11676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44352" windowHeight="10236"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3759,10 +3759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>連絡先: agd@ddbj.nig.ac.jp</t>
     <rPh sb="0" eb="3">
       <t>レンラクサキ</t>
@@ -3835,6 +3831,10 @@
     <rPh sb="156" eb="157">
       <t>ワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4375,9 +4375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4435,13 +4433,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
-        <v>748</v>
+      <c r="A12" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -4531,9 +4529,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.ddbj.nig.ac.jp/jga/index.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0"/>
   <extLst>
@@ -5510,7 +5505,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -5523,7 +5518,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">

--- a/assets/files/submission/AGD_metadata.xlsx
+++ b/assets/files/submission/AGD_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44352" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="825">
   <si>
     <t>Hold/Release</t>
     <phoneticPr fontId="1"/>
@@ -4214,6 +4214,19 @@
   </si>
   <si>
     <t>Ion Torrent S5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read Pair 2 Start Base を必須から任意に変更。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4408,9 +4421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4423,6 +4433,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4477,15 +4490,15 @@
       <sheetName val="Admin"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
@@ -4782,7 +4795,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -4856,19 +4869,19 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>376</v>
       </c>
@@ -4898,7 +4911,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="8">
-        <v>44743</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -4923,7 +4936,12 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B30" s="8"/>
+      <c r="A30" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44907</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B31" s="8"/>
@@ -4978,52 +4996,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>680</v>
       </c>
       <c r="Q1" s="3"/>
@@ -6046,7 +6064,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6059,7 +6077,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6075,27 +6093,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>689</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6115,48 +6133,48 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
@@ -6166,7 +6184,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>696</v>
       </c>
     </row>
@@ -6219,7 +6237,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>698</v>
       </c>
     </row>
@@ -6235,28 +6253,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
@@ -6269,7 +6287,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6294,16 +6312,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>704</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -6311,19 +6329,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
@@ -6341,10 +6359,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>708</v>
       </c>
       <c r="C22" s="3"/>
@@ -6352,7 +6370,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6360,14 +6378,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>2</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>3</v>
       </c>
       <c r="B25" s="3"/>
@@ -6382,7 +6400,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>709</v>
       </c>
     </row>
@@ -6398,30 +6416,30 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>2</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
       <c r="B34" s="3"/>
@@ -6436,30 +6454,30 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>2</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>3</v>
       </c>
       <c r="B40" s="3"/>
@@ -6475,36 +6493,36 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>713</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>2</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
       <c r="B46" s="3"/>
@@ -6520,26 +6538,26 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>3</v>
       </c>
       <c r="B52" s="3"/>
@@ -6550,30 +6568,30 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>2</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>3</v>
       </c>
       <c r="B58" s="3"/>
@@ -6664,656 +6682,656 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="22" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7397,70 +7415,70 @@
       <c r="K1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="24" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7471,7 +7489,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>112</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7482,7 +7500,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7493,7 +7511,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>114</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7504,7 +7522,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>115</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7515,7 +7533,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7526,7 +7544,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7537,7 +7555,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>118</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7548,7 +7566,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -7559,7 +7577,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>120</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -7570,7 +7588,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -7581,7 +7599,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -7592,7 +7610,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -7603,7 +7621,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>124</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -7614,7 +7632,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>125</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -7625,7 +7643,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>126</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -7636,7 +7654,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -7647,7 +7665,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>128</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -7658,7 +7676,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>129</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -7669,7 +7687,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>130</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -7680,7 +7698,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>131</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -7691,7 +7709,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>132</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -7702,7 +7720,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -7713,7 +7731,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>134</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -7724,7 +7742,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>135</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -7735,7 +7753,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>136</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -7746,7 +7764,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -7757,7 +7775,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>138</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -7768,7 +7786,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>139</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -7779,7 +7797,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>140</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -7790,7 +7808,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>141</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -7801,7 +7819,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>142</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -7812,7 +7830,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>143</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -7823,7 +7841,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>144</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -7834,7 +7852,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>145</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -7845,7 +7863,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>146</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -7856,7 +7874,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>147</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -7867,7 +7885,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>148</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -7878,7 +7896,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>149</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -7889,7 +7907,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>150</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -7900,7 +7918,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>151</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -7911,7 +7929,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>152</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -7922,7 +7940,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>153</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -7933,7 +7951,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>154</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -7944,7 +7962,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>155</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -7955,7 +7973,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>156</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -7966,7 +7984,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -7977,7 +7995,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>158</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -7988,7 +8006,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>159</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -7999,7 +8017,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>160</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8010,7 +8028,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>161</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8021,7 +8039,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>162</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8032,7 +8050,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>163</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8043,7 +8061,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8054,7 +8072,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8065,7 +8083,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>166</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8076,7 +8094,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>167</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8087,7 +8105,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>168</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8098,7 +8116,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>169</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8109,7 +8127,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>170</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8120,7 +8138,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>171</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8131,7 +8149,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8142,7 +8160,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>173</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8153,7 +8171,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8164,7 +8182,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>175</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8175,7 +8193,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>176</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8186,7 +8204,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>177</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8197,7 +8215,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>178</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8208,7 +8226,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>179</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8219,7 +8237,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="22" t="s">
         <v>180</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8230,7 +8248,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>181</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8241,7 +8259,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>182</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8252,7 +8270,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>183</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8263,7 +8281,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>184</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8274,7 +8292,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>185</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8285,7 +8303,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>186</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8296,7 +8314,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>187</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8307,7 +8325,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>188</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8318,7 +8336,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="22" t="s">
         <v>189</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8329,7 +8347,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>190</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8340,7 +8358,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>191</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8351,7 +8369,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8362,7 +8380,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>193</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8373,7 +8391,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>194</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8384,7 +8402,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>195</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8395,7 +8413,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="22" t="s">
         <v>196</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8406,7 +8424,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>197</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8417,7 +8435,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
         <v>198</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8428,7 +8446,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>199</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8439,7 +8457,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>200</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8450,7 +8468,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>201</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8461,7 +8479,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="22" t="s">
         <v>202</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8472,7 +8490,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="22" t="s">
         <v>203</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8483,7 +8501,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="22" t="s">
         <v>204</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8494,7 +8512,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="22" t="s">
         <v>205</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8505,7 +8523,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="22" t="s">
         <v>206</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8516,7 +8534,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="22" t="s">
         <v>207</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8527,7 +8545,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="22" t="s">
         <v>208</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8538,7 +8556,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="22" t="s">
         <v>209</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8549,7 +8567,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="22" t="s">
         <v>210</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -8583,7 +8601,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
+            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
@@ -8595,7 +8613,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
+            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>X4:X102</xm:sqref>
         </x14:dataValidation>
@@ -8664,580 +8682,580 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>760</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>401</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>402</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>403</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>404</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>405</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>406</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>407</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>408</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>409</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>410</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>411</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>412</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>413</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>415</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>416</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>417</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>418</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>419</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>420</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>421</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>422</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>423</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>424</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>425</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>426</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>427</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>428</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>429</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>432</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>433</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>434</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>435</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>437</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>438</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>440</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>441</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>442</v>
       </c>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>443</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>444</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>446</v>
       </c>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>447</v>
       </c>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>448</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>449</v>
       </c>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>450</v>
       </c>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>451</v>
       </c>
       <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>452</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>453</v>
       </c>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>454</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>455</v>
       </c>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>456</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>457</v>
       </c>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="22" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="22" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="22" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="22" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="22" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="22" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="22" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="22" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="22" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="22" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="22" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="22" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="22" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9341,72 +9359,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="26" t="s">
         <v>784</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9414,47 +9432,47 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9497,13 +9515,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
+            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
+            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I101:I102</xm:sqref>
         </x14:dataValidation>
@@ -9553,35 +9571,35 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>792</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9629,10 +9647,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>640</v>
       </c>
     </row>

--- a/assets/files/submission/AGD_metadata.xlsx
+++ b/assets/files/submission/AGD_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44352" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="824">
   <si>
     <t>Hold/Release</t>
     <phoneticPr fontId="1"/>
@@ -4214,19 +4214,6 @@
   </si>
   <si>
     <t>Ion Torrent S5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Read Pair 2 Start Base を必須から任意に変更。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4421,6 +4408,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4433,9 +4423,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4490,15 +4477,15 @@
       <sheetName val="Admin"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
@@ -4795,7 +4782,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -4869,19 +4856,19 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="1" t="s">
         <v>376</v>
       </c>
@@ -4911,7 +4898,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="8">
-        <v>44907</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -4936,12 +4923,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B30" s="8">
-        <v>44907</v>
-      </c>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B31" s="8"/>
@@ -4996,52 +4978,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>680</v>
       </c>
       <c r="Q1" s="3"/>
@@ -6064,7 +6046,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6077,7 +6059,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6093,27 +6075,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>689</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6133,48 +6115,48 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="22">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="22">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="22">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>10</v>
       </c>
     </row>
@@ -6184,7 +6166,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>696</v>
       </c>
     </row>
@@ -6237,7 +6219,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>698</v>
       </c>
     </row>
@@ -6253,28 +6235,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>3</v>
       </c>
     </row>
@@ -6287,7 +6269,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6312,16 +6294,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>704</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -6329,19 +6311,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>3</v>
       </c>
       <c r="B19" s="3"/>
@@ -6359,10 +6341,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>708</v>
       </c>
       <c r="C22" s="3"/>
@@ -6370,7 +6352,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6378,14 +6360,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>2</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>3</v>
       </c>
       <c r="B25" s="3"/>
@@ -6400,7 +6382,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>709</v>
       </c>
     </row>
@@ -6416,30 +6398,30 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>2</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>3</v>
       </c>
       <c r="B34" s="3"/>
@@ -6454,30 +6436,30 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="22">
+      <c r="A38" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>2</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>3</v>
       </c>
       <c r="B40" s="3"/>
@@ -6493,36 +6475,36 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="22">
+      <c r="A44" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>2</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="22">
+      <c r="A46" s="23">
         <v>3</v>
       </c>
       <c r="B46" s="3"/>
@@ -6538,26 +6520,26 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="22">
+      <c r="A50" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>2</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>3</v>
       </c>
       <c r="B52" s="3"/>
@@ -6568,30 +6550,30 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="22">
+      <c r="A57" s="23">
         <v>2</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>3</v>
       </c>
       <c r="B58" s="3"/>
@@ -6682,656 +6664,656 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>725</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="23" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7415,70 +7397,70 @@
       <c r="K1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>111</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7489,7 +7471,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>112</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7500,7 +7482,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7511,7 +7493,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7522,7 +7504,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>115</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7533,7 +7515,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7544,7 +7526,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>117</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7555,7 +7537,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>118</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7566,7 +7548,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -7577,7 +7559,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>120</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -7588,7 +7570,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -7599,7 +7581,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -7610,7 +7592,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -7621,7 +7603,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>124</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -7632,7 +7614,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>125</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -7643,7 +7625,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>126</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -7654,7 +7636,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -7665,7 +7647,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>128</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -7676,7 +7658,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>129</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -7687,7 +7669,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>130</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -7698,7 +7680,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>131</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -7709,7 +7691,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>132</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -7720,7 +7702,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>133</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -7731,7 +7713,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>134</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -7742,7 +7724,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>135</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -7753,7 +7735,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>136</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -7764,7 +7746,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -7775,7 +7757,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>138</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -7786,7 +7768,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>139</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -7797,7 +7779,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>140</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -7808,7 +7790,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>141</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -7819,7 +7801,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>142</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -7830,7 +7812,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>143</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -7841,7 +7823,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>144</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -7852,7 +7834,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>145</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -7863,7 +7845,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>146</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -7874,7 +7856,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -7885,7 +7867,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>148</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -7896,7 +7878,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>149</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -7907,7 +7889,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>150</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -7918,7 +7900,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>151</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -7929,7 +7911,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>152</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -7940,7 +7922,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>153</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -7951,7 +7933,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>154</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -7962,7 +7944,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>155</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -7973,7 +7955,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>156</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -7984,7 +7966,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="23" t="s">
         <v>157</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -7995,7 +7977,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="23" t="s">
         <v>158</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -8006,7 +7988,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>159</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -8017,7 +7999,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>160</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8028,7 +8010,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>161</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8039,7 +8021,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>162</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8050,7 +8032,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>163</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8061,7 +8043,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>164</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8072,7 +8054,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>165</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8083,7 +8065,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>166</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8094,7 +8076,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>167</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8105,7 +8087,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>168</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8116,7 +8098,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>169</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8127,7 +8109,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>170</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8138,7 +8120,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>171</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8149,7 +8131,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>172</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8160,7 +8142,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>173</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8171,7 +8153,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>174</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8182,7 +8164,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="23" t="s">
         <v>175</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8193,7 +8175,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>176</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8204,7 +8186,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="23" t="s">
         <v>177</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8215,7 +8197,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>178</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8226,7 +8208,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="23" t="s">
         <v>179</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8237,7 +8219,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="23" t="s">
         <v>180</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8248,7 +8230,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>181</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8259,7 +8241,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="23" t="s">
         <v>182</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8270,7 +8252,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
         <v>183</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8281,7 +8263,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="23" t="s">
         <v>184</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8292,7 +8274,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>185</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8303,7 +8285,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="23" t="s">
         <v>186</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8314,7 +8296,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="23" t="s">
         <v>187</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8325,7 +8307,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="23" t="s">
         <v>188</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8336,7 +8318,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="23" t="s">
         <v>189</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8347,7 +8329,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="23" t="s">
         <v>190</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8358,7 +8340,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="23" t="s">
         <v>191</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8369,7 +8351,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="23" t="s">
         <v>192</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8380,7 +8362,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>193</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8391,7 +8373,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="23" t="s">
         <v>194</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8402,7 +8384,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>195</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8413,7 +8395,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="23" t="s">
         <v>196</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8424,7 +8406,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="23" t="s">
         <v>197</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8435,7 +8417,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="23" t="s">
         <v>198</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8446,7 +8428,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="23" t="s">
         <v>199</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8457,7 +8439,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="23" t="s">
         <v>200</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8468,7 +8450,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="23" t="s">
         <v>201</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8479,7 +8461,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="23" t="s">
         <v>202</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8490,7 +8472,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="23" t="s">
         <v>203</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8501,7 +8483,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="23" t="s">
         <v>204</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8512,7 +8494,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="23" t="s">
         <v>205</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8523,7 +8505,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="23" t="s">
         <v>206</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8534,7 +8516,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23" t="s">
         <v>207</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8545,7 +8527,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="23" t="s">
         <v>208</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8556,7 +8538,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>209</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8567,7 +8549,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="23" t="s">
         <v>210</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -8601,7 +8583,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
+            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
@@ -8613,7 +8595,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
+            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>X4:X102</xm:sqref>
         </x14:dataValidation>
@@ -8682,580 +8664,580 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>760</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>401</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>402</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>403</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>404</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>405</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>406</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>407</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>409</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>410</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>411</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>412</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>413</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>414</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>415</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>416</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>417</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>418</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>419</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>420</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>421</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>422</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>423</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>424</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>425</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>426</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>427</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>428</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>429</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>432</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>433</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>434</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>435</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>437</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>438</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>440</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>441</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>442</v>
       </c>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>443</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>444</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>445</v>
       </c>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="23" t="s">
         <v>446</v>
       </c>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="23" t="s">
         <v>447</v>
       </c>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>449</v>
       </c>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>450</v>
       </c>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>451</v>
       </c>
       <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>452</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>454</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>455</v>
       </c>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>456</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>457</v>
       </c>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="23" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="23" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="23" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="23" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="23" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="23" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="23" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="23" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="23" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="23" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="23" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="23" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="23" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="23" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="23" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="23" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="23" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="23" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="23" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="23" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="23" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="23" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="23" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="23" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9359,72 +9341,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9432,47 +9414,47 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9515,13 +9497,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
+            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[JGA_metadata.xlsx]Admin!#REF!</xm:f>
+            <xm:f>'\\192.168.112.45\ykodama\www\assets\files\submission\[JGA_metadata.xlsx]Admin'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I101:I102</xm:sqref>
         </x14:dataValidation>
@@ -9571,35 +9553,35 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9647,10 +9629,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>640</v>
       </c>
     </row>
